--- a/ExcelFiles/Test3.xlsx
+++ b/ExcelFiles/Test3.xlsx
@@ -17,7 +17,7 @@
     <t>Hello</t>
   </si>
   <si>
-    <t>Selemnium</t>
+    <t>Selenium</t>
   </si>
   <si>
     <t>HYR</t>
